--- a/Code/Results/Cases/Case_2_142/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_142/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.908315460720814</v>
+        <v>1.248686548991202</v>
       </c>
       <c r="C2">
-        <v>2.158640537176836</v>
+        <v>0.6347598823854241</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.50680669340025</v>
+        <v>0.4183381963713657</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746121</v>
       </c>
       <c r="G2">
-        <v>0.0007402810857197149</v>
+        <v>0.002409453222045104</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.760481981193166</v>
+        <v>1.309755037841484</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.332601521059871</v>
+        <v>1.1112033983988</v>
       </c>
       <c r="C3">
-        <v>1.834222651040932</v>
+        <v>0.5557285926852842</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.273363043659671</v>
+        <v>0.3643157765080929</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.3878228170618172</v>
       </c>
       <c r="G3">
-        <v>0.0007542262459418516</v>
+        <v>0.002416663441703992</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.405488660539092</v>
+        <v>1.227970449418066</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.990297613040013</v>
+        <v>1.027504074215244</v>
       </c>
       <c r="C4">
-        <v>1.642288544277108</v>
+        <v>0.5074601859276981</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.136360230505559</v>
+        <v>0.3313260668759881</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305169483</v>
       </c>
       <c r="G4">
-        <v>0.0007628392602896464</v>
+        <v>0.00242130394989196</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.197808468143506</v>
+        <v>1.178427338663525</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.85310250299176</v>
+        <v>0.9935701704329745</v>
       </c>
       <c r="C5">
-        <v>1.565564625635375</v>
+        <v>0.4878504732234887</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1.081819877818674</v>
+        <v>0.3179235800748899</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514326325</v>
       </c>
       <c r="G5">
-        <v>0.0007663702994631964</v>
+        <v>0.002423248915043381</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.115339037232303</v>
+        <v>1.158399573988163</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.830446521364252</v>
+        <v>0.9879458305915136</v>
       </c>
       <c r="C6">
-        <v>1.552905946964074</v>
+        <v>0.4845977897548437</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.072833506263521</v>
+        <v>0.3157004664510907</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.3366681778241372</v>
       </c>
       <c r="G6">
-        <v>0.0007669581256846271</v>
+        <v>0.002423575139066763</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.101764430829888</v>
+        <v>1.155083504747168</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.988438675594068</v>
+        <v>1.027045731686542</v>
       </c>
       <c r="C7">
-        <v>1.641248185583493</v>
+        <v>0.5071954853426064</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1.135619821382022</v>
+        <v>0.3311451554405238</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938368969</v>
       </c>
       <c r="G7">
-        <v>0.0007628867852398969</v>
+        <v>0.002421329961689977</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.196688017008498</v>
+        <v>1.178156593710739</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.70714818408976</v>
+        <v>1.201130215155899</v>
       </c>
       <c r="C8">
-        <v>2.045054454719036</v>
+        <v>0.6074537094848438</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.424800426559472</v>
+        <v>0.3996712566773368</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813336</v>
       </c>
       <c r="G8">
-        <v>0.0007450844041523297</v>
+        <v>0.002411895170084785</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.635667157572584</v>
+        <v>1.281411322529763</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.234398425882375</v>
+        <v>1.548474245408499</v>
       </c>
       <c r="C9">
-        <v>2.913414342624208</v>
+        <v>0.8063201359917684</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>2.059574126140944</v>
+        <v>0.5356817657126527</v>
       </c>
       <c r="F9">
-        <v>1.895061171845313</v>
+        <v>0.5661985755042025</v>
       </c>
       <c r="G9">
-        <v>0.000710101336935054</v>
+        <v>0.002395074961288197</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>3.601835916293453</v>
+        <v>1.489594526421399</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.48204695864672</v>
+        <v>1.807734566465058</v>
       </c>
       <c r="C10">
-        <v>3.633028112543514</v>
+        <v>0.9541288060121929</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>2.600411407708691</v>
+        <v>0.6368945614587034</v>
       </c>
       <c r="F10">
-        <v>2.275587181990957</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.0006834790969215798</v>
+        <v>0.002383725395556979</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>4.419245319119113</v>
+        <v>1.646539119170853</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.094748195238878</v>
+        <v>1.926660233455721</v>
       </c>
       <c r="C11">
-        <v>3.989810163922073</v>
+        <v>1.021813068870529</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2.874131737379088</v>
+        <v>0.6832836257581931</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.0006708764315130031</v>
+        <v>0.002378777472905281</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>4.82872179824642</v>
+        <v>1.718918392158542</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.335463888996912</v>
+        <v>1.971844008173548</v>
       </c>
       <c r="C12">
-        <v>4.130600715985906</v>
+        <v>1.047513223460669</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>2.983245483690411</v>
+        <v>0.7009051812976708</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.0006659970837196759</v>
+        <v>0.002376934461263149</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>4.99094641057053</v>
+        <v>1.746477313822993</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.283189962607992</v>
+        <v>1.962106118896941</v>
       </c>
       <c r="C13">
-        <v>4.099996669428833</v>
+        <v>1.041975050144401</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>2.95947243262944</v>
+        <v>0.6971075333441377</v>
       </c>
       <c r="F13">
-        <v>2.504295469238428</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.0006670534313507412</v>
+        <v>0.002377330027502471</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>4.955654483376748</v>
+        <v>1.740535171584725</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.11436194874301</v>
+        <v>1.930374496758645</v>
       </c>
       <c r="C14">
-        <v>4.001268771800824</v>
+        <v>1.023926008953083</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>2.882988378722175</v>
+        <v>0.6847322289719244</v>
       </c>
       <c r="F14">
-        <v>2.457142640142237</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.0006704774077657845</v>
+        <v>0.002378625234313928</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>4.841912070012512</v>
+        <v>1.721182614159972</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.012162768378175</v>
+        <v>1.910957613996857</v>
       </c>
       <c r="C15">
-        <v>3.94158820217973</v>
+        <v>1.012879680548394</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>2.83690553555671</v>
+        <v>0.6771593186840761</v>
       </c>
       <c r="F15">
-        <v>2.428326063136538</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.0006725594428308799</v>
+        <v>0.002379422570828986</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>4.773237952904282</v>
+        <v>1.709348475597579</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.443084509882794</v>
+        <v>1.799982970308179</v>
       </c>
       <c r="C16">
-        <v>3.610415913896759</v>
+        <v>0.9497149130620528</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>2.583193617716702</v>
+        <v>0.6338703432317203</v>
       </c>
       <c r="F16">
-        <v>2.264147245220144</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.0006842900118670497</v>
+        <v>0.002384053058917202</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>4.393378085021567</v>
+        <v>1.641829529785724</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.106868541436995</v>
+        <v>1.732161487516919</v>
       </c>
       <c r="C17">
-        <v>3.415665328919829</v>
+        <v>0.911083342851839</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>2.435521413328829</v>
+        <v>0.6074064128751928</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337215605</v>
       </c>
       <c r="G17">
-        <v>0.000691338466585228</v>
+        <v>0.002386948605244887</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>4.171046842827792</v>
+        <v>1.60066725813212</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.917566396095992</v>
+        <v>1.693244798965736</v>
       </c>
       <c r="C18">
-        <v>3.306308608368226</v>
+        <v>0.8889050634140858</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>2.353076057983927</v>
+        <v>0.5922173912552182</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.0006953490028987694</v>
+        <v>0.002388634304581073</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>4.046576675729966</v>
+        <v>1.577083921689848</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.854117857860444</v>
+        <v>1.680083934461265</v>
       </c>
       <c r="C19">
-        <v>3.269702890180781</v>
+        <v>0.8814028534939098</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>2.325553402939121</v>
+        <v>0.587080048038672</v>
       </c>
       <c r="F19">
-        <v>2.087706772602971</v>
+        <v>0.6191636801734006</v>
       </c>
       <c r="G19">
-        <v>0.0006967003205242262</v>
+        <v>0.002389208540870633</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>4.004974962088113</v>
+        <v>1.569114560916375</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.14222352585216</v>
+        <v>1.739371581471175</v>
       </c>
       <c r="C20">
-        <v>3.436112849389872</v>
+        <v>0.9151913965562244</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2.45097460677998</v>
+        <v>0.6102201604676623</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.6429339538360921</v>
       </c>
       <c r="G20">
-        <v>0.0006905928741197192</v>
+        <v>0.002386638274667604</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>4.19435084754906</v>
+        <v>1.605039454797122</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.163692844834088</v>
+        <v>1.939690734511998</v>
       </c>
       <c r="C21">
-        <v>4.030098811445896</v>
+        <v>1.02922551612653</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>2.905290404648809</v>
+        <v>0.6883656207839692</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723492197</v>
       </c>
       <c r="G21">
-        <v>0.0006694749668878756</v>
+        <v>0.002378243970664955</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>4.875109191984848</v>
+        <v>1.726862774119013</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.883734005121198</v>
+        <v>2.071484140054736</v>
       </c>
       <c r="C22">
-        <v>4.452596113439427</v>
+        <v>1.104161734862828</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>3.235272483149771</v>
+        <v>0.7397614112366426</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.000655020691482988</v>
+        <v>0.002372936389301032</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>5.363164007495044</v>
+        <v>1.807362611314318</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.493654903728157</v>
+        <v>2.001061136392366</v>
       </c>
       <c r="C23">
-        <v>4.22331596183551</v>
+        <v>1.064127627997095</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>3.055454639737192</v>
+        <v>0.7122991975049047</v>
       </c>
       <c r="F23">
-        <v>2.562285531758789</v>
+        <v>0.7472568307916134</v>
       </c>
       <c r="G23">
-        <v>0.0006628110662284634</v>
+        <v>0.002375752893364089</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>5.097957493289357</v>
+        <v>1.764314713290645</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.126227254181629</v>
+        <v>1.73611166560346</v>
       </c>
       <c r="C24">
-        <v>3.426860503183889</v>
+        <v>0.9133340477011984</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>2.443980678412473</v>
+        <v>0.6089479863148455</v>
       </c>
       <c r="F24">
-        <v>2.170038921573038</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.0006909300838950961</v>
+        <v>0.002386778509890232</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>4.183804791573323</v>
+        <v>1.603062531808291</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.803921822361929</v>
+        <v>1.453826259618609</v>
       </c>
       <c r="C25">
-        <v>2.667257682494551</v>
+        <v>0.7522465533280638</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.877753920073928</v>
+        <v>0.4986830249168008</v>
       </c>
       <c r="F25">
-        <v>1.757113814925404</v>
+        <v>0.5279251897347308</v>
       </c>
       <c r="G25">
-        <v>0.0007196494951708932</v>
+        <v>0.002399446997422821</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>3.325377103485579</v>
+        <v>1.432612166527406</v>
       </c>
       <c r="J25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_142/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_142/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.248686548991202</v>
+        <v>3.90831546072053</v>
       </c>
       <c r="C2">
-        <v>0.6347598823854241</v>
+        <v>2.158640537176552</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.4183381963713657</v>
+        <v>1.506806693400193</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746121</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.002409453222045104</v>
+        <v>0.0007402810858441448</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.309755037841484</v>
+        <v>2.760481981193237</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.1112033983988</v>
+        <v>3.332601521059871</v>
       </c>
       <c r="C3">
-        <v>0.5557285926852842</v>
+        <v>1.834222651041273</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.3643157765080929</v>
+        <v>1.273363043659799</v>
       </c>
       <c r="F3">
-        <v>0.3878228170618172</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.002416663441703992</v>
+        <v>0.0007542262458807545</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.227970449418066</v>
+        <v>2.40548866053912</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.027504074215244</v>
+        <v>2.99029761304007</v>
       </c>
       <c r="C4">
-        <v>0.5074601859276981</v>
+        <v>1.642288544277733</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.3313260668759881</v>
+        <v>1.136360230505545</v>
       </c>
       <c r="F4">
-        <v>0.3531389305169483</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.00242130394989196</v>
+        <v>0.0007628392603263973</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.178427338663525</v>
+        <v>2.197808468143606</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9935701704329745</v>
+        <v>2.85310250299176</v>
       </c>
       <c r="C5">
-        <v>0.4878504732234887</v>
+        <v>1.565564625635602</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.3179235800748899</v>
+        <v>1.08181987781866</v>
       </c>
       <c r="F5">
-        <v>0.3390132514326325</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.002423248915043381</v>
+        <v>0.0007663702993939185</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.158399573988163</v>
+        <v>2.115339037232317</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9879458305915136</v>
+        <v>2.830446521364252</v>
       </c>
       <c r="C6">
-        <v>0.4845977897548437</v>
+        <v>1.552905946964074</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.3157004664510907</v>
+        <v>1.072833506263478</v>
       </c>
       <c r="F6">
-        <v>0.3366681778241372</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.002423575139066763</v>
+        <v>0.0007669581256269803</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.155083504747168</v>
+        <v>2.101764430829903</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.027045731686542</v>
+        <v>2.988438675594182</v>
       </c>
       <c r="C7">
-        <v>0.5071954853426064</v>
+        <v>1.641248185583493</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.3311451554405238</v>
+        <v>1.135619821381994</v>
       </c>
       <c r="F7">
-        <v>0.3529483938368969</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.002421329961689977</v>
+        <v>0.0007628867852649425</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.178156593710739</v>
+        <v>2.196688017008498</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.201130215155899</v>
+        <v>3.707148184089704</v>
       </c>
       <c r="C8">
-        <v>0.6074537094848438</v>
+        <v>2.045054454718297</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.3996712566773368</v>
+        <v>1.424800426559514</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813336</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.002411895170084785</v>
+        <v>0.0007450844041483669</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.281411322529763</v>
+        <v>2.635667157572627</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.548474245408499</v>
+        <v>5.234398425882205</v>
       </c>
       <c r="C9">
-        <v>0.8063201359917684</v>
+        <v>2.913414342624492</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.5356817657126527</v>
+        <v>2.05957412614093</v>
       </c>
       <c r="F9">
-        <v>0.5661985755042025</v>
+        <v>1.895061171845327</v>
       </c>
       <c r="G9">
-        <v>0.002395074961288197</v>
+        <v>0.000710101336875768</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.489594526421399</v>
+        <v>3.601835916293481</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.807734566465058</v>
+        <v>6.48204695864672</v>
       </c>
       <c r="C10">
-        <v>0.9541288060121929</v>
+        <v>3.633028112543343</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.6368945614587034</v>
+        <v>2.600411407708719</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990957</v>
       </c>
       <c r="G10">
-        <v>0.002383725395556979</v>
+        <v>0.0006834790968263023</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.646539119170853</v>
+        <v>4.419245319119028</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.926660233455721</v>
+        <v>7.094748195238708</v>
       </c>
       <c r="C11">
-        <v>1.021813068870529</v>
+        <v>3.989810163921845</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.6832836257581931</v>
+        <v>2.874131737379088</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.002378777472905281</v>
+        <v>0.0006708764313908335</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.718918392158542</v>
+        <v>4.828721798246505</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.971844008173548</v>
+        <v>7.335463888996912</v>
       </c>
       <c r="C12">
-        <v>1.047513223460669</v>
+        <v>4.130600715985111</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.7009051812976708</v>
+        <v>2.983245483690382</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.002376934461263149</v>
+        <v>0.0006659970838303053</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.746477313822993</v>
+        <v>4.990946410570501</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.962106118896941</v>
+        <v>7.28318996260839</v>
       </c>
       <c r="C13">
-        <v>1.041975050144401</v>
+        <v>4.09999666942872</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.6971075333441377</v>
+        <v>2.959472432629411</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469238414</v>
       </c>
       <c r="G13">
-        <v>0.002377330027502471</v>
+        <v>0.0006670534313526343</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.740535171584725</v>
+        <v>4.955654483376748</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.930374496758645</v>
+        <v>7.114361948742896</v>
       </c>
       <c r="C14">
-        <v>1.023926008953083</v>
+        <v>4.001268771800881</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.6847322289719244</v>
+        <v>2.882988378722118</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142266</v>
       </c>
       <c r="G14">
-        <v>0.002378625234313928</v>
+        <v>0.0006704774078731786</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.721182614159972</v>
+        <v>4.841912070012512</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.910957613996857</v>
+        <v>7.012162768378232</v>
       </c>
       <c r="C15">
-        <v>1.012879680548394</v>
+        <v>3.941588202180071</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.6771593186840761</v>
+        <v>2.836905535556753</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.002379422570828986</v>
+        <v>0.0006725594429368709</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.709348475597579</v>
+        <v>4.773237952904282</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.799982970308179</v>
+        <v>6.443084509882681</v>
       </c>
       <c r="C16">
-        <v>0.9497149130620528</v>
+        <v>3.610415913896531</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.6338703432317203</v>
+        <v>2.583193617716631</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.002384053058917202</v>
+        <v>0.0006842900117495881</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.641829529785724</v>
+        <v>4.393378085021624</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.732161487516919</v>
+        <v>6.106868541437279</v>
       </c>
       <c r="C17">
-        <v>0.911083342851839</v>
+        <v>3.415665328919431</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.6074064128751928</v>
+        <v>2.435521413328843</v>
       </c>
       <c r="F17">
-        <v>0.6400460337215605</v>
+        <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.002386948605244887</v>
+        <v>0.0006913384665701017</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.60066725813212</v>
+        <v>4.171046842827906</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.693244798965736</v>
+        <v>5.917566396095879</v>
       </c>
       <c r="C18">
-        <v>0.8889050634140858</v>
+        <v>3.306308608367942</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.5922173912552182</v>
+        <v>2.353076057983984</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650742</v>
       </c>
       <c r="G18">
-        <v>0.002388634304581073</v>
+        <v>0.0006953490030928342</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.577083921689848</v>
+        <v>4.046576675730023</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.680083934461265</v>
+        <v>5.854117857860558</v>
       </c>
       <c r="C19">
-        <v>0.8814028534939098</v>
+        <v>3.269702890181065</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.587080048038672</v>
+        <v>2.32555340293905</v>
       </c>
       <c r="F19">
-        <v>0.6191636801734006</v>
+        <v>2.087706772602957</v>
       </c>
       <c r="G19">
-        <v>0.002389208540870633</v>
+        <v>0.0006967003203016097</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.569114560916375</v>
+        <v>4.00497496208817</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.739371581471175</v>
+        <v>6.142223525852273</v>
       </c>
       <c r="C20">
-        <v>0.9151913965562244</v>
+        <v>3.436112849390042</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.6102201604676623</v>
+        <v>2.450974606779937</v>
       </c>
       <c r="F20">
-        <v>0.6429339538360921</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.002386638274667604</v>
+        <v>0.0006905928742104717</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.605039454797122</v>
+        <v>4.194350847549089</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.939690734511998</v>
+        <v>7.163692844834259</v>
       </c>
       <c r="C21">
-        <v>1.02922551612653</v>
+        <v>4.030098811446408</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.6883656207839692</v>
+        <v>2.905290404648895</v>
       </c>
       <c r="F21">
-        <v>0.7228739723492197</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.002378243970664955</v>
+        <v>0.0006694749668718636</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.726862774119013</v>
+        <v>4.875109191984933</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.071484140054736</v>
+        <v>7.883734005121028</v>
       </c>
       <c r="C22">
-        <v>1.104161734862828</v>
+        <v>4.452596113439881</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.7397614112366426</v>
+        <v>3.235272483149728</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0.002372936389301032</v>
+        <v>0.000655020691284397</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.807362611314318</v>
+        <v>5.363164007494987</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.001061136392366</v>
+        <v>7.493654903728157</v>
       </c>
       <c r="C23">
-        <v>1.064127627997095</v>
+        <v>4.223315961836192</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.7122991975049047</v>
+        <v>3.055454639737192</v>
       </c>
       <c r="F23">
-        <v>0.7472568307916134</v>
+        <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>0.002375752893364089</v>
+        <v>0.0006628110662162859</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.764314713290645</v>
+        <v>5.097957493289442</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.73611166560346</v>
+        <v>6.126227254181856</v>
       </c>
       <c r="C24">
-        <v>0.9133340477011984</v>
+        <v>3.426860503183093</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.6089479863148455</v>
+        <v>2.443980678412501</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921573024</v>
       </c>
       <c r="G24">
-        <v>0.002386778509890232</v>
+        <v>0.0006909300838879071</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.603062531808291</v>
+        <v>4.183804791573436</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.453826259618609</v>
+        <v>4.803921822362099</v>
       </c>
       <c r="C25">
-        <v>0.7522465533280638</v>
+        <v>2.667257682494949</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.4986830249168008</v>
+        <v>1.877753920074028</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347308</v>
+        <v>1.757113814925404</v>
       </c>
       <c r="G25">
-        <v>0.002399446997422821</v>
+        <v>0.0007196494951142718</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.432612166527406</v>
+        <v>3.325377103485678</v>
       </c>
       <c r="J25">
         <v>0</v>
